--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_150.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d3979719-Reviews-Courtyard_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>264</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Long-Beach-Airport.h5800944.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_150.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_150.xlsx
@@ -4341,7 +4341,7 @@
         <v>62414</v>
       </c>
       <c r="B2" t="n">
-        <v>132358</v>
+        <v>163152</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4412,7 +4412,7 @@
         <v>62414</v>
       </c>
       <c r="B3" t="n">
-        <v>132359</v>
+        <v>163153</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4542,7 +4542,7 @@
         <v>62414</v>
       </c>
       <c r="B5" t="n">
-        <v>132360</v>
+        <v>163154</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4672,7 +4672,7 @@
         <v>62414</v>
       </c>
       <c r="B7" t="n">
-        <v>132361</v>
+        <v>163155</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -4814,7 +4814,7 @@
         <v>62414</v>
       </c>
       <c r="B9" t="n">
-        <v>132362</v>
+        <v>163156</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
@@ -4885,7 +4885,7 @@
         <v>62414</v>
       </c>
       <c r="B10" t="n">
-        <v>132363</v>
+        <v>163157</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -5084,7 +5084,7 @@
         <v>62414</v>
       </c>
       <c r="B13" t="n">
-        <v>132364</v>
+        <v>163158</v>
       </c>
       <c r="C13" t="s">
         <v>151</v>
@@ -5153,7 +5153,7 @@
         <v>62414</v>
       </c>
       <c r="B14" t="n">
-        <v>132365</v>
+        <v>163159</v>
       </c>
       <c r="C14" t="s">
         <v>157</v>
@@ -5289,7 +5289,7 @@
         <v>62414</v>
       </c>
       <c r="B16" t="n">
-        <v>132366</v>
+        <v>163160</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -5356,7 +5356,7 @@
         <v>62414</v>
       </c>
       <c r="B17" t="n">
-        <v>132367</v>
+        <v>163161</v>
       </c>
       <c r="C17" t="s">
         <v>187</v>
@@ -5421,7 +5421,7 @@
         <v>62414</v>
       </c>
       <c r="B18" t="n">
-        <v>132368</v>
+        <v>163162</v>
       </c>
       <c r="C18" t="s">
         <v>197</v>
@@ -5486,7 +5486,7 @@
         <v>62414</v>
       </c>
       <c r="B19" t="n">
-        <v>132369</v>
+        <v>163163</v>
       </c>
       <c r="C19" t="s">
         <v>207</v>
@@ -5551,7 +5551,7 @@
         <v>62414</v>
       </c>
       <c r="B20" t="n">
-        <v>132370</v>
+        <v>163164</v>
       </c>
       <c r="C20" t="s">
         <v>217</v>
@@ -5681,7 +5681,7 @@
         <v>62414</v>
       </c>
       <c r="B22" t="n">
-        <v>132371</v>
+        <v>163165</v>
       </c>
       <c r="C22" t="s">
         <v>236</v>
@@ -5752,7 +5752,7 @@
         <v>62414</v>
       </c>
       <c r="B23" t="n">
-        <v>132372</v>
+        <v>163166</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -5817,7 +5817,7 @@
         <v>62414</v>
       </c>
       <c r="B24" t="n">
-        <v>132373</v>
+        <v>163167</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -5882,7 +5882,7 @@
         <v>62414</v>
       </c>
       <c r="B25" t="n">
-        <v>132374</v>
+        <v>163168</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
@@ -5943,7 +5943,7 @@
         <v>62414</v>
       </c>
       <c r="B26" t="n">
-        <v>132375</v>
+        <v>163169</v>
       </c>
       <c r="C26" t="s">
         <v>274</v>
@@ -6012,7 +6012,7 @@
         <v>62414</v>
       </c>
       <c r="B27" t="n">
-        <v>132376</v>
+        <v>163170</v>
       </c>
       <c r="C27" t="s">
         <v>283</v>
@@ -6081,7 +6081,7 @@
         <v>62414</v>
       </c>
       <c r="B28" t="n">
-        <v>132377</v>
+        <v>163171</v>
       </c>
       <c r="C28" t="s">
         <v>292</v>
@@ -6282,7 +6282,7 @@
         <v>62414</v>
       </c>
       <c r="B31" t="n">
-        <v>132378</v>
+        <v>163172</v>
       </c>
       <c r="C31" t="s">
         <v>316</v>
@@ -6412,7 +6412,7 @@
         <v>62414</v>
       </c>
       <c r="B33" t="n">
-        <v>132379</v>
+        <v>163173</v>
       </c>
       <c r="C33" t="s">
         <v>336</v>
@@ -6477,7 +6477,7 @@
         <v>62414</v>
       </c>
       <c r="B34" t="n">
-        <v>132380</v>
+        <v>163174</v>
       </c>
       <c r="C34" t="s">
         <v>345</v>
@@ -6609,7 +6609,7 @@
         <v>62414</v>
       </c>
       <c r="B36" t="n">
-        <v>132381</v>
+        <v>163175</v>
       </c>
       <c r="C36" t="s">
         <v>364</v>
@@ -6887,7 +6887,7 @@
         <v>62414</v>
       </c>
       <c r="B40" t="n">
-        <v>132382</v>
+        <v>163176</v>
       </c>
       <c r="C40" t="s">
         <v>400</v>
@@ -6956,7 +6956,7 @@
         <v>62414</v>
       </c>
       <c r="B41" t="n">
-        <v>132383</v>
+        <v>163177</v>
       </c>
       <c r="C41" t="s">
         <v>410</v>
@@ -7027,7 +7027,7 @@
         <v>62414</v>
       </c>
       <c r="B42" t="n">
-        <v>132384</v>
+        <v>163178</v>
       </c>
       <c r="C42" t="s">
         <v>420</v>
@@ -7159,7 +7159,7 @@
         <v>62414</v>
       </c>
       <c r="B44" t="n">
-        <v>132385</v>
+        <v>163179</v>
       </c>
       <c r="C44" t="s">
         <v>438</v>
@@ -7230,7 +7230,7 @@
         <v>62414</v>
       </c>
       <c r="B45" t="n">
-        <v>132386</v>
+        <v>163180</v>
       </c>
       <c r="C45" t="s">
         <v>448</v>
@@ -7301,7 +7301,7 @@
         <v>62414</v>
       </c>
       <c r="B46" t="n">
-        <v>132387</v>
+        <v>163181</v>
       </c>
       <c r="C46" t="s">
         <v>458</v>
@@ -7370,7 +7370,7 @@
         <v>62414</v>
       </c>
       <c r="B47" t="n">
-        <v>132388</v>
+        <v>163182</v>
       </c>
       <c r="C47" t="s">
         <v>467</v>
@@ -7496,7 +7496,7 @@
         <v>62414</v>
       </c>
       <c r="B49" t="n">
-        <v>132389</v>
+        <v>163183</v>
       </c>
       <c r="C49" t="s">
         <v>486</v>
@@ -7561,7 +7561,7 @@
         <v>62414</v>
       </c>
       <c r="B50" t="n">
-        <v>132390</v>
+        <v>163184</v>
       </c>
       <c r="C50" t="s">
         <v>496</v>
@@ -7632,7 +7632,7 @@
         <v>62414</v>
       </c>
       <c r="B51" t="n">
-        <v>132391</v>
+        <v>163185</v>
       </c>
       <c r="C51" t="s">
         <v>506</v>
@@ -7843,7 +7843,7 @@
         <v>62414</v>
       </c>
       <c r="B54" t="n">
-        <v>132392</v>
+        <v>163186</v>
       </c>
       <c r="C54" t="s">
         <v>534</v>
@@ -7912,7 +7912,7 @@
         <v>62414</v>
       </c>
       <c r="B55" t="n">
-        <v>132393</v>
+        <v>163187</v>
       </c>
       <c r="C55" t="s">
         <v>541</v>
@@ -8048,7 +8048,7 @@
         <v>62414</v>
       </c>
       <c r="B57" t="n">
-        <v>132394</v>
+        <v>163188</v>
       </c>
       <c r="C57" t="s">
         <v>560</v>
@@ -8113,7 +8113,7 @@
         <v>62414</v>
       </c>
       <c r="B58" t="n">
-        <v>132395</v>
+        <v>163189</v>
       </c>
       <c r="C58" t="s">
         <v>567</v>
@@ -8184,7 +8184,7 @@
         <v>62414</v>
       </c>
       <c r="B59" t="n">
-        <v>132396</v>
+        <v>163190</v>
       </c>
       <c r="C59" t="s">
         <v>576</v>
@@ -8389,7 +8389,7 @@
         <v>62414</v>
       </c>
       <c r="B62" t="n">
-        <v>132397</v>
+        <v>163191</v>
       </c>
       <c r="C62" t="s">
         <v>603</v>
@@ -8460,7 +8460,7 @@
         <v>62414</v>
       </c>
       <c r="B63" t="n">
-        <v>132398</v>
+        <v>163192</v>
       </c>
       <c r="C63" t="s">
         <v>612</v>
@@ -8525,7 +8525,7 @@
         <v>62414</v>
       </c>
       <c r="B64" t="n">
-        <v>132399</v>
+        <v>163193</v>
       </c>
       <c r="C64" t="s">
         <v>619</v>
@@ -8590,7 +8590,7 @@
         <v>62414</v>
       </c>
       <c r="B65" t="n">
-        <v>132400</v>
+        <v>163194</v>
       </c>
       <c r="C65" t="s">
         <v>626</v>
@@ -8655,7 +8655,7 @@
         <v>62414</v>
       </c>
       <c r="B66" t="n">
-        <v>132401</v>
+        <v>163195</v>
       </c>
       <c r="C66" t="s">
         <v>636</v>
@@ -8726,7 +8726,7 @@
         <v>62414</v>
       </c>
       <c r="B67" t="n">
-        <v>132402</v>
+        <v>163196</v>
       </c>
       <c r="C67" t="s">
         <v>642</v>
@@ -8797,7 +8797,7 @@
         <v>62414</v>
       </c>
       <c r="B68" t="n">
-        <v>132403</v>
+        <v>146920</v>
       </c>
       <c r="C68" t="s">
         <v>649</v>
@@ -9118,7 +9118,7 @@
         <v>62414</v>
       </c>
       <c r="B73" t="n">
-        <v>132404</v>
+        <v>163197</v>
       </c>
       <c r="C73" t="s">
         <v>682</v>
@@ -9388,7 +9388,7 @@
         <v>62414</v>
       </c>
       <c r="B77" t="n">
-        <v>132405</v>
+        <v>163198</v>
       </c>
       <c r="C77" t="s">
         <v>714</v>
@@ -9457,7 +9457,7 @@
         <v>62414</v>
       </c>
       <c r="B78" t="n">
-        <v>132406</v>
+        <v>163199</v>
       </c>
       <c r="C78" t="s">
         <v>724</v>
@@ -9526,7 +9526,7 @@
         <v>62414</v>
       </c>
       <c r="B79" t="n">
-        <v>132407</v>
+        <v>163200</v>
       </c>
       <c r="C79" t="s">
         <v>731</v>
@@ -9591,7 +9591,7 @@
         <v>62414</v>
       </c>
       <c r="B80" t="n">
-        <v>132408</v>
+        <v>163201</v>
       </c>
       <c r="C80" t="s">
         <v>740</v>
@@ -9660,7 +9660,7 @@
         <v>62414</v>
       </c>
       <c r="B81" t="n">
-        <v>132409</v>
+        <v>163202</v>
       </c>
       <c r="C81" t="s">
         <v>749</v>
@@ -9729,7 +9729,7 @@
         <v>62414</v>
       </c>
       <c r="B82" t="n">
-        <v>132410</v>
+        <v>163203</v>
       </c>
       <c r="C82" t="s">
         <v>756</v>
@@ -9865,7 +9865,7 @@
         <v>62414</v>
       </c>
       <c r="B84" t="n">
-        <v>132411</v>
+        <v>163204</v>
       </c>
       <c r="C84" t="s">
         <v>771</v>
@@ -9934,7 +9934,7 @@
         <v>62414</v>
       </c>
       <c r="B85" t="n">
-        <v>132412</v>
+        <v>163205</v>
       </c>
       <c r="C85" t="s">
         <v>780</v>
@@ -10072,7 +10072,7 @@
         <v>62414</v>
       </c>
       <c r="B87" t="n">
-        <v>132413</v>
+        <v>163206</v>
       </c>
       <c r="C87" t="s">
         <v>795</v>
@@ -10141,7 +10141,7 @@
         <v>62414</v>
       </c>
       <c r="B88" t="n">
-        <v>132414</v>
+        <v>163207</v>
       </c>
       <c r="C88" t="s">
         <v>805</v>
@@ -10208,7 +10208,7 @@
         <v>62414</v>
       </c>
       <c r="B89" t="n">
-        <v>132415</v>
+        <v>163208</v>
       </c>
       <c r="C89" t="s">
         <v>812</v>
@@ -10346,7 +10346,7 @@
         <v>62414</v>
       </c>
       <c r="B91" t="n">
-        <v>132416</v>
+        <v>163209</v>
       </c>
       <c r="C91" t="s">
         <v>827</v>
@@ -10411,7 +10411,7 @@
         <v>62414</v>
       </c>
       <c r="B92" t="n">
-        <v>132417</v>
+        <v>163210</v>
       </c>
       <c r="C92" t="s">
         <v>836</v>
@@ -10476,7 +10476,7 @@
         <v>62414</v>
       </c>
       <c r="B93" t="n">
-        <v>132418</v>
+        <v>163211</v>
       </c>
       <c r="C93" t="s">
         <v>844</v>
@@ -10608,7 +10608,7 @@
         <v>62414</v>
       </c>
       <c r="B95" t="n">
-        <v>132419</v>
+        <v>163212</v>
       </c>
       <c r="C95" t="s">
         <v>857</v>
@@ -10679,7 +10679,7 @@
         <v>62414</v>
       </c>
       <c r="B96" t="n">
-        <v>132420</v>
+        <v>163213</v>
       </c>
       <c r="C96" t="s">
         <v>863</v>
@@ -10740,7 +10740,7 @@
         <v>62414</v>
       </c>
       <c r="B97" t="n">
-        <v>132421</v>
+        <v>163214</v>
       </c>
       <c r="C97" t="s">
         <v>869</v>
@@ -10805,7 +10805,7 @@
         <v>62414</v>
       </c>
       <c r="B98" t="n">
-        <v>132422</v>
+        <v>163215</v>
       </c>
       <c r="C98" t="s">
         <v>875</v>
@@ -11004,7 +11004,7 @@
         <v>62414</v>
       </c>
       <c r="B101" t="n">
-        <v>132423</v>
+        <v>163216</v>
       </c>
       <c r="C101" t="s">
         <v>895</v>
@@ -11069,7 +11069,7 @@
         <v>62414</v>
       </c>
       <c r="B102" t="n">
-        <v>132424</v>
+        <v>163217</v>
       </c>
       <c r="C102" t="s">
         <v>903</v>
@@ -11195,7 +11195,7 @@
         <v>62414</v>
       </c>
       <c r="B104" t="n">
-        <v>132425</v>
+        <v>163218</v>
       </c>
       <c r="C104" t="s">
         <v>916</v>
@@ -11260,7 +11260,7 @@
         <v>62414</v>
       </c>
       <c r="B105" t="n">
-        <v>132426</v>
+        <v>163219</v>
       </c>
       <c r="C105" t="s">
         <v>923</v>
@@ -11327,7 +11327,7 @@
         <v>62414</v>
       </c>
       <c r="B106" t="n">
-        <v>132427</v>
+        <v>163220</v>
       </c>
       <c r="C106" t="s">
         <v>929</v>
@@ -11394,7 +11394,7 @@
         <v>62414</v>
       </c>
       <c r="B107" t="n">
-        <v>132428</v>
+        <v>163221</v>
       </c>
       <c r="C107" t="s">
         <v>934</v>
@@ -11526,7 +11526,7 @@
         <v>62414</v>
       </c>
       <c r="B109" t="n">
-        <v>132429</v>
+        <v>163222</v>
       </c>
       <c r="C109" t="s">
         <v>948</v>
@@ -11597,7 +11597,7 @@
         <v>62414</v>
       </c>
       <c r="B110" t="n">
-        <v>132430</v>
+        <v>163223</v>
       </c>
       <c r="C110" t="s">
         <v>955</v>
@@ -11668,7 +11668,7 @@
         <v>62414</v>
       </c>
       <c r="B111" t="n">
-        <v>132431</v>
+        <v>163224</v>
       </c>
       <c r="C111" t="s">
         <v>961</v>
@@ -11800,7 +11800,7 @@
         <v>62414</v>
       </c>
       <c r="B113" t="n">
-        <v>132432</v>
+        <v>163225</v>
       </c>
       <c r="C113" t="s">
         <v>974</v>
@@ -11871,7 +11871,7 @@
         <v>62414</v>
       </c>
       <c r="B114" t="n">
-        <v>132433</v>
+        <v>163226</v>
       </c>
       <c r="C114" t="s">
         <v>981</v>
@@ -11942,7 +11942,7 @@
         <v>62414</v>
       </c>
       <c r="B115" t="n">
-        <v>132434</v>
+        <v>163227</v>
       </c>
       <c r="C115" t="s">
         <v>988</v>
@@ -12003,7 +12003,7 @@
         <v>62414</v>
       </c>
       <c r="B116" t="n">
-        <v>132435</v>
+        <v>163228</v>
       </c>
       <c r="C116" t="s">
         <v>995</v>
@@ -12074,7 +12074,7 @@
         <v>62414</v>
       </c>
       <c r="B117" t="n">
-        <v>132436</v>
+        <v>163229</v>
       </c>
       <c r="C117" t="s">
         <v>1001</v>
@@ -12220,7 +12220,7 @@
         <v>62414</v>
       </c>
       <c r="B119" t="n">
-        <v>132437</v>
+        <v>163230</v>
       </c>
       <c r="C119" t="s">
         <v>1017</v>
@@ -12356,7 +12356,7 @@
         <v>62414</v>
       </c>
       <c r="B121" t="n">
-        <v>132438</v>
+        <v>163231</v>
       </c>
       <c r="C121" t="s">
         <v>1033</v>
@@ -12427,7 +12427,7 @@
         <v>62414</v>
       </c>
       <c r="B122" t="n">
-        <v>132439</v>
+        <v>163232</v>
       </c>
       <c r="C122" t="s">
         <v>1040</v>
@@ -12498,7 +12498,7 @@
         <v>62414</v>
       </c>
       <c r="B123" t="n">
-        <v>132440</v>
+        <v>163233</v>
       </c>
       <c r="C123" t="s">
         <v>1047</v>
@@ -12569,7 +12569,7 @@
         <v>62414</v>
       </c>
       <c r="B124" t="n">
-        <v>132441</v>
+        <v>163234</v>
       </c>
       <c r="C124" t="s">
         <v>1053</v>
@@ -12630,7 +12630,7 @@
         <v>62414</v>
       </c>
       <c r="B125" t="n">
-        <v>132442</v>
+        <v>163235</v>
       </c>
       <c r="C125" t="s">
         <v>1059</v>
@@ -12886,7 +12886,7 @@
         <v>62414</v>
       </c>
       <c r="B129" t="n">
-        <v>132443</v>
+        <v>163236</v>
       </c>
       <c r="C129" t="s">
         <v>1086</v>
@@ -12961,7 +12961,7 @@
         <v>62414</v>
       </c>
       <c r="B130" t="n">
-        <v>132444</v>
+        <v>163237</v>
       </c>
       <c r="C130" t="s">
         <v>1096</v>
@@ -13022,7 +13022,7 @@
         <v>62414</v>
       </c>
       <c r="B131" t="n">
-        <v>132445</v>
+        <v>163238</v>
       </c>
       <c r="C131" t="s">
         <v>1102</v>
@@ -13150,7 +13150,7 @@
         <v>62414</v>
       </c>
       <c r="B133" t="n">
-        <v>132446</v>
+        <v>163239</v>
       </c>
       <c r="C133" t="s">
         <v>1115</v>
@@ -13288,7 +13288,7 @@
         <v>62414</v>
       </c>
       <c r="B135" t="n">
-        <v>132447</v>
+        <v>163240</v>
       </c>
       <c r="C135" t="s">
         <v>1129</v>
@@ -13359,7 +13359,7 @@
         <v>62414</v>
       </c>
       <c r="B136" t="n">
-        <v>132448</v>
+        <v>163241</v>
       </c>
       <c r="C136" t="s">
         <v>1136</v>
@@ -13426,7 +13426,7 @@
         <v>62414</v>
       </c>
       <c r="B137" t="n">
-        <v>132449</v>
+        <v>163242</v>
       </c>
       <c r="C137" t="s">
         <v>1142</v>
@@ -13501,7 +13501,7 @@
         <v>62414</v>
       </c>
       <c r="B138" t="n">
-        <v>132450</v>
+        <v>163243</v>
       </c>
       <c r="C138" t="s">
         <v>1151</v>
@@ -13704,7 +13704,7 @@
         <v>62414</v>
       </c>
       <c r="B141" t="n">
-        <v>132451</v>
+        <v>163244</v>
       </c>
       <c r="C141" t="s">
         <v>1171</v>
@@ -13775,7 +13775,7 @@
         <v>62414</v>
       </c>
       <c r="B142" t="n">
-        <v>132452</v>
+        <v>163245</v>
       </c>
       <c r="C142" t="s">
         <v>1177</v>
@@ -13846,7 +13846,7 @@
         <v>62414</v>
       </c>
       <c r="B143" t="n">
-        <v>132453</v>
+        <v>163246</v>
       </c>
       <c r="C143" t="s">
         <v>1183</v>
@@ -13917,7 +13917,7 @@
         <v>62414</v>
       </c>
       <c r="B144" t="n">
-        <v>132454</v>
+        <v>163247</v>
       </c>
       <c r="C144" t="s">
         <v>1190</v>
@@ -13988,7 +13988,7 @@
         <v>62414</v>
       </c>
       <c r="B145" t="n">
-        <v>132455</v>
+        <v>163248</v>
       </c>
       <c r="C145" t="s">
         <v>1197</v>
@@ -14059,7 +14059,7 @@
         <v>62414</v>
       </c>
       <c r="B146" t="n">
-        <v>132456</v>
+        <v>163249</v>
       </c>
       <c r="C146" t="s">
         <v>1203</v>
@@ -14201,7 +14201,7 @@
         <v>62414</v>
       </c>
       <c r="B148" t="n">
-        <v>132457</v>
+        <v>163250</v>
       </c>
       <c r="C148" t="s">
         <v>1218</v>
@@ -14272,7 +14272,7 @@
         <v>62414</v>
       </c>
       <c r="B149" t="n">
-        <v>132458</v>
+        <v>163251</v>
       </c>
       <c r="C149" t="s">
         <v>1224</v>
@@ -14477,7 +14477,7 @@
         <v>62414</v>
       </c>
       <c r="B152" t="n">
-        <v>132459</v>
+        <v>163252</v>
       </c>
       <c r="C152" t="s">
         <v>1243</v>
